--- a/biology/Zoologie/Diadectes/Diadectes.xlsx
+++ b/biology/Zoologie/Diadectes/Diadectes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diadectes (qui signifie « morsure pénétrante ») est un genre éteint de grands tétrapodes ressemblant beaucoup à un reptile qui vivait au Permien inférieur[1]. C'est l'un des tout premiers tétrapodes herbivores et aussi l'un des premiers animaux terrestres à atteindre de grandes dimensions.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diadectes (qui signifie « morsure pénétrante ») est un genre éteint de grands tétrapodes ressemblant beaucoup à un reptile qui vivait au Permien inférieur. C'est l'un des tout premiers tétrapodes herbivores et aussi l'un des premiers animaux terrestres à atteindre de grandes dimensions.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diadectes était un animal lourdement charpenté, de 1,5 à 3 mètres de long, avec un crâne fortement ossifié, des vertèbres et des côtes massives, des membres massifs et courts, des jambes robustes. La structure des membres et des vertèbres indique clairement qu'il s'agissait d'un animal terrestre.
 </t>
@@ -542,7 +556,9 @@
           <t>Paléobiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il possède certaines caractéristiques des reptiles et des amphibiens, combinant un crâne primitif proche des seymouriamorphes et un reste du squelette plus évolué proche des reptiles. Diadectes a été classé comme un proche parent des premiers amniotes.
 Parmi ses caractéristiques primitives, on peut citer une large échancrure otique (une fonctionnalité présente chez les amphibiens du Paléozoïque) avec un tympan ossifié.
@@ -576,7 +592,9 @@
           <t>Découvertes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Des restes de Diadectes ont été trouvés dans un certain nombre d'endroits en Amérique du Nord, en particulier le s Red Beds au Texas (Wichita et Clear Fork) dans l'Oklahoma, l'Utah et en Allemagne.
 </t>
